--- a/服务供应商入驻优化.xlsx
+++ b/服务供应商入驻优化.xlsx
@@ -4,592 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21942" windowHeight="8605" activeTab="2"/>
+    <workbookView windowWidth="21942" windowHeight="8605"/>
   </bookViews>
   <sheets>
-    <sheet name="完善规模信息" sheetId="2" r:id="rId1"/>
-    <sheet name="入驻" sheetId="3" r:id="rId2"/>
-    <sheet name="品类" sheetId="4" r:id="rId3"/>
-    <sheet name="完善商务信息" sheetId="5" r:id="rId4"/>
+    <sheet name="品类" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="283">
-  <si>
-    <t>1）查看品类</t>
-  </si>
-  <si>
-    <t>接口：app/completeInfo/queryProductByPartnerCode</t>
-  </si>
-  <si>
-    <t>请求方式：get</t>
-  </si>
-  <si>
-    <t>参数： 
-partnerCode   String     合作伙伴编码</t>
-  </si>
-  <si>
-    <t>返回参数：</t>
-  </si>
-  <si>
-    <t>2）App规模信息-查询草稿</t>
-  </si>
-  <si>
-    <t>接口：app/completeInfo/scaleInfo/exhibit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-执业律师人数（个）
-private Integer lawyersNumber;
-自有车辆类型
-private String ownVehicleType;
-自有车辆数量
-private Integer ownVehicleQuantity;
-财务报表
-private List&lt;PartnerAttachment&gt; financialStatements;
-包装产能（单线日产能)
-private String packageCapacity;
-加工产能（单线日产能
-private String processCapacity;
-连锁行业服务实际案例
-private String actualCase;</t>
-  </si>
-  <si>
-    <t>1）保存</t>
-  </si>
-  <si>
-    <t>接口：  app/settled/saveInfo</t>
-  </si>
-  <si>
-    <t>参数：</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{
-        "affiliateArea": "",
-        "alias": "",
-        "annualRent": "",
-        "approvedTime": "",
-        "bcEmail": "",
-        "bcOfficeAddress": "",
-        "bcPhone": "",
-        "bcPhone2": "",
-        "bcPosition": "",
-        "bcPostCode": "",
-        "bcRecommender": "",
-        "bcSex": "",
-        "bcSexName": "",
-        "blEndDate": "",
-        "blNumber": "",
-        "blStartDate": "",
-        "bondName": "",
-        "businessContact": "",
-        "businessScope": "",
-        "categoryFunds": "",
-        "categoryYears": "",
-        "city": "",
-        "cityName": "",
-        "companyName": "",
-        "completeSteps": 0,
-        "corporate": "",
-        "corporateType": "",
-        "countries": "",
-        "country": "",
-        "countryName": "",
-        "createdBy": "",
-        "createdTime": "",
-        "deleted": true,
-        "distributionType": "",
-        "documentsNum": "",
-        "documentsType": "",
-        "documentsTypeName": "",
-        "domicileCity": "",
-        "domicileCityName": "",
-        "domicileDistrict": "",
-        "domicileDistrictName": "",
-        "domicileProvince": "",
-        "domicileProvinceName": "",
-        "doorWidth": "",
-        "enterpriseGenre": "",
-        "enterpriseId": "",
-        "failureReason": "",
-        "fileUploads": [
-                {
-                        "applicationId": 0,
-                        "applicationScenes": "",
-                        "createdBy": "",
-                        "createdTime": "",
-                        "deleted": true,
-                        "fileName": "",
-                        "filePath": "",
-                        "fileSuffix": "",
-                        "fileType": "",
-                        "id": 0,
-                        "updatedBy": "",
-                        "updatedTime": "",
-                        "version": 0
-                }
-        ],
-        "firstType": "",
-        "firstTypeName": "",
-        "healthLicenseEndDate": "",
-        "healthLicenseNum": "",
-        "id": 0,
-        "ifMatch": "",
-        "industry": "",
-        "isTakeStore": true,
-        "majorProduct": "",
-        "mdmPartnerType": "",
-        "mdmPartnerTypeName": "",
-        "name": "",
-        "orgNumber": "",
-        "partnerId": 0,
-        "partnerNature": "",
-       "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFF54A45"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>partnerQualifications</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>": [
-                {
-                        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFF54A45"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>certificateCode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>": "",
-                        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFF54A45"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>certificateEndTime</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>": "",
-                        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFF54A45"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>certificateStartTime</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>": "",
-                        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFF54A45"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>companyName</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>": "",
-                        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFF54A45"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>fileName</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>": "",
-                        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFF54A45"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>filePath</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>": "",
-                        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFF54A45"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>fileSuffix</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>": "",
-                        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1F2329"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>": 0,
-                        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFF54A45"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>partnerId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>": 0,
-                        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFF54A45"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>qualificationType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>": "",
-                        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFF54A45"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>sumAssured</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>": ""
-                }
-        ],
-        "percentileScore": "",
-        "productCategory": "",
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFF54A45"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>productCategoryCodes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>": "",
-        "productCategoryName": "",
-        "productionAddress": "",
-        "productionLicenseEndDate": "",
-        "productionLicenseNum": "",
-        "property3": "",
-        "province": "",
-        "provinceName": "",
-        "qualificationType": "",
-        "qualificationTypeName": "",
-        "regCapitalCurrency": "",
-        "regInstitute": "",
-        "regNumber": "",
-        "regStatus": "",
-        "regYear": 0,
-        "registeredCapital": 0,
-        "registeredCapital2": "",
-        "registeredDate": "",
-        "remark": "",
-        "secondType": "",
-        "secondTypeName": "",
-        "sellerTenantId": 0,
-        "shortPartnerName": "",
-        "smallEnterprises": "",
-        "socialStaffNum": 0,
-        "spareContact": "",
-        "spareEmail": "",
-        "spareOfficeAddress": "",
-        "sparePhone": "",
-        "sparePosition": "",
-        "sparePostCode": "",
-        "spareRecommender": "",
-        "staffNumRange": "",
-        "storeAddress": "",
-        "storeArea": "",
-        "supplierBusinessTerm": "",
-        "supplierBusinessTermName": "",
-        "tableMark": 0,
-        "tags": "",
-        "taxNumber": "",
-        "unifiedSocialCreditCode": "",
-        "unifiedSocialEndDate": "",
-        "updatedBy": "",
-        "updatedTime": "",
-        "usedBondName": "",
-        "version": 0
-}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">partnerQualifications中
-"certificateCode":          证书编码
-"certificateEndTime":     发证时间
-"certificateStartTime":    有效时间
- "companyName":          单位名称
- "fileName":                    附件名称      
- "filePath": "",                  附件地址
- "fileSuffix": "",                附件后缀
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> "id": 0,  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">            
-"partnerId":                    合作伙伴id
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4E83FD"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> "qualificationType":       资质类型编
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> "sumAssured":              保额
-productCategoryCodes字段： </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6425D0"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 品类集合（多个值通过 ， 拼接），
-app只接收不需要传</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4E83FD"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">qualificationType中类型
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>LAW_OFFICE("律所"),
-THE_LAWYER("律师"),
-AGENT_QUALIFICATION("品牌原厂授权或代理资质资料"),
-INFRASTRUCTURE_CERTIFICATION("数据中心场地基础设施认证证书"),
-SECURITY_LEVEL_RECORD_CERTIFICATE("信息系统安全等级保护备案证明"),
-CAPACITY_SYSTEM_CERTIFICATION("金融业信息系统机房运力系统认证"),
-TELECOMMUNICATIONS_BUSINESS_LICENSE("增值电信业务经营许可证"),
-ROAD_TRANSPORT("道路运输"),
-CARGO_INSURANCE_POLICY("货物保险保单"),
-WAREHOUSE_INSURANCE_POLICY("仓库保险保单"),
-ADVERTISING_MEDIA_AGENCY("广告媒体代理"),
-ARTISTS_BUSINESS("艺人商务"),
-IP_TRADEMARK("IP商标"),
-USE_THE_PATENT("专利使用"),
-LABOR_DISPATCH("劳务派遣"),
-THE_HUMAN_RESOURCES("人力资源"),
-COMMISSION_BASIS("委托代征代扣代收"),
-MEDICAL_INSTITUTION("医疗机构"),
-PEST_CONTROL("有害生物防治"),
-SECURITY_SERVICE_LEVEL("保安服务等级"),
-SECURITY_SERVICE("保安服务"),
-CLEANING_SERVICES("保洁服务"),
-FIRE_QUALIFICATION("消防资质");qualificationType</t>
-    </r>
-  </si>
-  <si>
-    <t>2）提交</t>
-  </si>
-  <si>
-    <t>接口：  /app/settled/submitInfo</t>
-  </si>
-  <si>
-    <t>3）再次提交</t>
-  </si>
-  <si>
-    <t>4）通过当前用户id查看界面</t>
-  </si>
-  <si>
-    <t>接口： /app/settled/getInfoByTenantId/{localUserId}</t>
-  </si>
-  <si>
-    <t>入参</t>
-  </si>
-  <si>
-    <t xml:space="preserve">localUserId     当前登录人id </t>
-  </si>
-  <si>
-    <t>返回参数</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="261">
   <si>
     <t>供应商类型</t>
   </si>
@@ -1379,12 +804,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1405,27 +830,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color rgb="FF245BDB"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1447,7 +860,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1461,15 +874,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1479,6 +884,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1507,14 +919,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1532,10 +936,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1548,14 +952,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1568,22 +973,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF4E83FD"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF6425D0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1601,7 +996,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1613,7 +1026,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1625,19 +1098,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1649,25 +1122,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1679,73 +1164,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1757,31 +1176,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1826,30 +1221,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1860,6 +1231,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1882,6 +1262,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1895,152 +1290,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2051,12 +1446,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2378,203 +1767,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.4" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="86" customWidth="1"/>
-    <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="59" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23.1" spans="1:1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="12.85" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="12.85" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" ht="12.85" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" ht="12.85" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" ht="12.85" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" ht="12.85" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" ht="12.85" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" ht="12.85" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.4" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="135" customWidth="1"/>
-    <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="4" max="4" width="43" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23.1" spans="1:1">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" ht="12.85" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" ht="12.85" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" ht="12.85" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" ht="12.85" spans="1:1">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" ht="23.1" spans="1:1">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" ht="12.85" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" ht="12.85" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" ht="12.85" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" ht="23.1" spans="1:1">
-      <c r="A19" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" ht="12.85" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" ht="12.85" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" ht="12.85" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" ht="23.1" spans="1:1">
-      <c r="A27" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" ht="12.85" spans="1:1">
-      <c r="A28" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" ht="19" customHeight="1" spans="1:1">
-      <c r="A30" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" ht="19" customHeight="1" spans="1:1">
-      <c r="A31" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" ht="19" customHeight="1"/>
-    <row r="33" ht="12.85" spans="1:1">
-      <c r="A33" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" ht="12.85" spans="1:1">
-      <c r="A34" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:E258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2589,3520 +1784,3520 @@
   <sheetData>
     <row r="1" ht="12.85" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" ht="19" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
         <v>1110</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="12.85" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>111010</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" ht="12.85" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>111011</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" ht="12.85" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>111012</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" ht="12.85" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>111013</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" ht="12.85" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>111014</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="12.85" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>111015</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" ht="12.85" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>111016</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="12.85" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>111017</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" ht="12.85" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>111018</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="12.85" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>111019</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>111020</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1">
         <v>1111</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" ht="12.85" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>111110</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="12.85" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>111111</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="12.85" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>111112</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="19" customHeight="1" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1">
         <v>1112</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="12.85" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>111210</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="12.85" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>111211</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="12.85" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>111212</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="19" customHeight="1" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C23" s="1">
         <v>1113</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" ht="12.85" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>111310</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="12.85" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D25">
         <v>111311</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="12.85" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D26">
         <v>111312</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="12.85" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>111313</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="19" customHeight="1" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C28" s="1">
         <v>1114</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="12.85" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>111410</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" ht="19" customHeight="1" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="19" customHeight="1" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1">
         <v>1210</v>
       </c>
       <c r="E31" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" ht="12.85" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D32">
         <v>121010</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" ht="19" customHeight="1" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1">
         <v>1211</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" ht="12.85" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D34">
         <v>121110</v>
       </c>
       <c r="E34" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" ht="12.85" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D35">
         <v>121111</v>
       </c>
       <c r="E35" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" ht="19" customHeight="1" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>1212</v>
       </c>
       <c r="E36" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" ht="12.85" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D37">
         <v>121210</v>
       </c>
       <c r="E37" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" ht="12.85" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D38">
         <v>121211</v>
       </c>
       <c r="E38" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" ht="12.85" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D39">
         <v>121212</v>
       </c>
       <c r="E39" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" ht="19" customHeight="1" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>1213</v>
       </c>
       <c r="E40" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" ht="12.85" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D41">
         <v>121310</v>
       </c>
       <c r="E41" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" ht="19" customHeight="1" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>1214</v>
       </c>
       <c r="E42" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" ht="12.85" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D43">
         <v>121410</v>
       </c>
       <c r="E43" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" ht="12.85" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D44">
         <v>121411</v>
       </c>
       <c r="E44" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" ht="19" customHeight="1" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>1215</v>
       </c>
       <c r="E45" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" ht="12.85" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D46">
         <v>121510</v>
       </c>
       <c r="E46" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" ht="12.85" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D47">
         <v>121511</v>
       </c>
       <c r="E47" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" ht="19" customHeight="1" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>1216</v>
       </c>
       <c r="E48" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" ht="12.85" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D49">
         <v>121610</v>
       </c>
       <c r="E49" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" ht="12.85" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D50">
         <v>121611</v>
       </c>
       <c r="E50" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" ht="19" customHeight="1" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>1217</v>
       </c>
       <c r="E51" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" ht="12.85" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D52">
         <v>121710</v>
       </c>
       <c r="E52" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" ht="19" customHeight="1" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>1218</v>
       </c>
       <c r="E53" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" ht="12.85" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D54">
         <v>121810</v>
       </c>
       <c r="E54" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" ht="12.85" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D55">
         <v>121811</v>
       </c>
       <c r="E55" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" ht="19" customHeight="1" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>1219</v>
       </c>
       <c r="E56" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" ht="12.85" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D57">
         <v>121910</v>
       </c>
       <c r="E57" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" ht="12.85" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D58">
         <v>121911</v>
       </c>
       <c r="E58" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" ht="19" customHeight="1" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>1220</v>
       </c>
       <c r="E59" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" ht="12.85" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D60">
         <v>122010</v>
       </c>
       <c r="E60" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" ht="12.85" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D61">
         <v>122011</v>
       </c>
       <c r="E61" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" ht="19" customHeight="1" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>1221</v>
       </c>
       <c r="E62" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" ht="12.85" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D63">
         <v>122110</v>
       </c>
       <c r="E63" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" ht="12.85" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D64">
         <v>122111</v>
       </c>
       <c r="E64" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" ht="12.85" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D65">
         <v>122112</v>
       </c>
       <c r="E65" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" ht="12.85" spans="1:5">
       <c r="A66" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D66">
         <v>122113</v>
       </c>
       <c r="E66" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" ht="12.85" spans="1:5">
       <c r="A67" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D67">
         <v>122114</v>
       </c>
       <c r="E67" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" ht="12.85" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D68">
         <v>122115</v>
       </c>
       <c r="E68" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" ht="19" customHeight="1" spans="1:5">
       <c r="A69" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>1222</v>
       </c>
       <c r="E69" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" ht="12.85" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D70">
         <v>122210</v>
       </c>
       <c r="E70" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" ht="19" customHeight="1" spans="1:2">
       <c r="A71" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" ht="19" customHeight="1" spans="1:5">
       <c r="A72" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C72" s="1">
         <v>3310</v>
       </c>
       <c r="E72" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" ht="12.85" spans="1:5">
       <c r="A73" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D73">
         <v>331010</v>
       </c>
       <c r="E73" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" ht="19" customHeight="1" spans="1:5">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C74">
         <v>3311</v>
       </c>
       <c r="E74" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" ht="12.85" spans="1:5">
       <c r="A75" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D75">
         <v>331110</v>
       </c>
       <c r="E75" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" ht="12.85" spans="1:5">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D76">
         <v>331111</v>
       </c>
       <c r="E76" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" ht="12.85" spans="1:5">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D77">
         <v>331112</v>
       </c>
       <c r="E77" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" ht="19" customHeight="1" spans="1:5">
       <c r="A78" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C78">
         <v>3312</v>
       </c>
       <c r="E78" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" ht="12.85" spans="1:5">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D79">
         <v>331210</v>
       </c>
       <c r="E79" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" ht="19" customHeight="1" spans="1:5">
       <c r="A80" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C80">
         <v>3313</v>
       </c>
       <c r="E80" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" ht="12.85" spans="1:5">
       <c r="A81" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D81">
         <v>331310</v>
       </c>
       <c r="E81" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" ht="12.85" spans="1:5">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D82">
         <v>331311</v>
       </c>
       <c r="E82" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" ht="19" customHeight="1" spans="1:5">
       <c r="A83" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C83">
         <v>3314</v>
       </c>
       <c r="E83" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" ht="12.85" spans="1:5">
       <c r="A84" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D84">
         <v>331410</v>
       </c>
       <c r="E84" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" ht="19" customHeight="1" spans="1:5">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C85">
         <v>3315</v>
       </c>
       <c r="E85" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" ht="12.85" spans="1:5">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D86">
         <v>331510</v>
       </c>
       <c r="E86" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" ht="19" customHeight="1" spans="1:5">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D87">
         <v>331511</v>
       </c>
       <c r="E87" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" ht="19" customHeight="1" spans="1:5">
       <c r="A88" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C88">
         <v>3316</v>
       </c>
       <c r="E88" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" ht="12.85" spans="1:5">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D89">
         <v>331610</v>
       </c>
       <c r="E89" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" ht="12.85" spans="1:5">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D90">
         <v>331611</v>
       </c>
       <c r="E90" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" ht="19" customHeight="1" spans="1:5">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C91">
         <v>3317</v>
       </c>
       <c r="E91" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" ht="12.85" spans="1:5">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D92">
         <v>331710</v>
       </c>
       <c r="E92" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" ht="12.85" spans="1:5">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D93">
         <v>331711</v>
       </c>
       <c r="E93" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" ht="12.85" spans="1:5">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C94">
         <v>3319</v>
       </c>
       <c r="E94" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95" ht="12.85" spans="1:5">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D95">
         <v>331910</v>
       </c>
       <c r="E95" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" ht="12.85" spans="1:5">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D96">
         <v>331911</v>
       </c>
       <c r="E96" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" ht="12.85" spans="1:5">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D97">
         <v>331912</v>
       </c>
       <c r="E97" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" ht="19" customHeight="1" spans="1:5">
       <c r="A98" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C98">
         <v>3320</v>
       </c>
       <c r="E98" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" ht="12.85" spans="1:5">
       <c r="A99" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D99">
         <v>332010</v>
       </c>
       <c r="E99" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" ht="19" customHeight="1" spans="1:2">
       <c r="A100" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" ht="19" customHeight="1" spans="1:5">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C101">
         <v>3010</v>
       </c>
       <c r="E101" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="D102">
         <v>301010</v>
       </c>
       <c r="E102" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="D103">
         <v>301011</v>
       </c>
       <c r="E103" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" ht="19" customHeight="1" spans="1:5">
       <c r="A104" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C104">
         <v>3011</v>
       </c>
       <c r="E104" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B105" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="D105">
         <v>301110</v>
       </c>
       <c r="E105" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" ht="19" customHeight="1" spans="1:5">
       <c r="A106" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B106" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C106">
         <v>3012</v>
       </c>
       <c r="E106" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B107" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="D107">
         <v>301210</v>
       </c>
       <c r="E107" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B108" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="D108">
         <v>301211</v>
       </c>
       <c r="E108" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B109" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="D109">
         <v>301212</v>
       </c>
       <c r="E109" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" ht="19" customHeight="1" spans="1:2">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" ht="19" customHeight="1" spans="1:5">
       <c r="A111" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C111">
         <v>3210</v>
       </c>
       <c r="E111" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D112">
         <v>321010</v>
       </c>
       <c r="E112" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D113">
         <v>321011</v>
       </c>
       <c r="E113" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B114" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D114">
         <v>321012</v>
       </c>
       <c r="E114" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B115" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D115">
         <v>321013</v>
       </c>
       <c r="E115" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116" ht="19" customHeight="1" spans="1:5">
       <c r="A116" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B116" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C116">
         <v>3211</v>
       </c>
       <c r="E116" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B117" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D117">
         <v>321110</v>
       </c>
       <c r="E117" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B118" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D118">
         <v>321111</v>
       </c>
       <c r="E118" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B119" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D119">
         <v>321112</v>
       </c>
       <c r="E119" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B120" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D120">
         <v>321113</v>
       </c>
       <c r="E120" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" ht="19" customHeight="1" spans="1:5">
       <c r="A121" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B121" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C121">
         <v>3212</v>
       </c>
       <c r="E121" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B122" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D122">
         <v>321210</v>
       </c>
       <c r="E122" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B123" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D123">
         <v>321211</v>
       </c>
       <c r="E123" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B124" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D124">
         <v>321212</v>
       </c>
       <c r="E124" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B125" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D125">
         <v>321213</v>
       </c>
       <c r="E125" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126" ht="19" customHeight="1" spans="1:5">
       <c r="A126" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B126" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C126">
         <v>3213</v>
       </c>
       <c r="E126" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B127" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D127">
         <v>321310</v>
       </c>
       <c r="E127" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
     </row>
     <row r="128" ht="19" customHeight="1" spans="1:2">
       <c r="A128" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129" ht="19" customHeight="1" spans="1:5">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="C129">
         <v>2210</v>
       </c>
       <c r="E129" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="D130">
         <v>221010</v>
       </c>
       <c r="E130" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="D131">
         <v>221011</v>
       </c>
       <c r="E131" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132" ht="19" customHeight="1" spans="1:2">
       <c r="A132" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133" ht="19" customHeight="1" spans="1:5">
       <c r="A133" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C133">
         <v>2110</v>
       </c>
       <c r="E133" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="D134">
         <v>211010</v>
       </c>
       <c r="E134" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135" ht="19" customHeight="1" spans="1:5">
       <c r="A135" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C135">
         <v>2111</v>
       </c>
       <c r="E135" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="D136">
         <v>211110</v>
       </c>
       <c r="E136" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B137" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="D137">
         <v>211111</v>
       </c>
       <c r="E137" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="138" ht="19" customHeight="1" spans="1:2">
       <c r="A138" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139" ht="19" customHeight="1" spans="1:5">
       <c r="A139" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C139">
         <v>3410</v>
       </c>
       <c r="E139" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="D140">
         <v>341010</v>
       </c>
       <c r="E140" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141" ht="19" customHeight="1" spans="1:2">
       <c r="A141" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142" ht="19" customHeight="1" spans="1:5">
       <c r="A142" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="C142">
         <v>3610</v>
       </c>
       <c r="E142" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D143">
         <v>361010</v>
       </c>
       <c r="E143" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D144">
         <v>361011</v>
       </c>
       <c r="E144" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D145">
         <v>361012</v>
       </c>
       <c r="E145" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B146" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D146">
         <v>361013</v>
       </c>
       <c r="E146" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B147" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D147">
         <v>361014</v>
       </c>
       <c r="E147" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B148" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D148">
         <v>361015</v>
       </c>
       <c r="E148" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
     </row>
     <row r="149" ht="19" customHeight="1" spans="1:5">
       <c r="A149" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B149" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="C149">
         <v>3611</v>
       </c>
       <c r="E149" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B150" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D150">
         <v>361110</v>
       </c>
       <c r="E150" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
     </row>
     <row r="151" ht="19" customHeight="1" spans="1:5">
       <c r="A151" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B151" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="C151">
         <v>3612</v>
       </c>
       <c r="E151" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B152" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D152">
         <v>361210</v>
       </c>
       <c r="E152" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B153" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D153">
         <v>361211</v>
       </c>
       <c r="E153" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="154" ht="19" customHeight="1" spans="1:5">
       <c r="A154" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B154" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="C154">
         <v>3613</v>
       </c>
       <c r="E154" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B155" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D155">
         <v>361310</v>
       </c>
       <c r="E155" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B156" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D156">
         <v>361311</v>
       </c>
       <c r="E156" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B157" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D157">
         <v>361312</v>
       </c>
       <c r="E157" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B158" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D158">
         <v>361313</v>
       </c>
       <c r="E158" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B159" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D159">
         <v>361314</v>
       </c>
       <c r="E159" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
     </row>
     <row r="160" ht="19" customHeight="1" spans="1:5">
       <c r="A160" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B160" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="C160">
         <v>3614</v>
       </c>
       <c r="E160" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B161" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D161">
         <v>361410</v>
       </c>
       <c r="E161" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B162" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D162">
         <v>361411</v>
       </c>
       <c r="E162" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
     </row>
     <row r="163" ht="19" customHeight="1" spans="1:5">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B163" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="C163">
         <v>3615</v>
       </c>
       <c r="E163" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B164" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D164">
         <v>361510</v>
       </c>
       <c r="E164" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" ht="19" customHeight="1" spans="1:5">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B165" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="C165">
         <v>3616</v>
       </c>
       <c r="E165" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B166" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D166">
         <v>361610</v>
       </c>
       <c r="E166" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B167" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D167">
         <v>361611</v>
       </c>
       <c r="E167" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
     </row>
     <row r="168" ht="19" customHeight="1" spans="1:2">
       <c r="A168" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
     </row>
     <row r="169" ht="19" customHeight="1" spans="1:5">
       <c r="A169" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C169">
         <v>3710</v>
       </c>
       <c r="E169" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D170">
         <v>371010</v>
       </c>
       <c r="E170" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="171" ht="19" customHeight="1" spans="1:5">
       <c r="A171" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C171">
         <v>3711</v>
       </c>
       <c r="E171" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B172" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D172">
         <v>371110</v>
       </c>
       <c r="E172" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
     </row>
     <row r="173" ht="19" customHeight="1" spans="1:5">
       <c r="A173" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B173" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C173">
         <v>3712</v>
       </c>
       <c r="E173" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B174" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D174">
         <v>371210</v>
       </c>
       <c r="E174" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B175" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D175">
         <v>371211</v>
       </c>
       <c r="E175" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="176" ht="19" customHeight="1" spans="1:5">
       <c r="A176" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B176" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C176">
         <v>3713</v>
       </c>
       <c r="E176" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B177" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D177">
         <v>371310</v>
       </c>
       <c r="E177" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B178" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D178">
         <v>371311</v>
       </c>
       <c r="E178" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
     </row>
     <row r="179" ht="19" customHeight="1" spans="1:5">
       <c r="A179" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B179" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C179">
         <v>3714</v>
       </c>
       <c r="E179" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B180" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D180">
         <v>371410</v>
       </c>
       <c r="E180" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B181" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D181">
         <v>371411</v>
       </c>
       <c r="E181" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="182" ht="19" customHeight="1" spans="1:5">
       <c r="A182" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B182" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C182">
         <v>3715</v>
       </c>
       <c r="E182" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B183" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D183">
         <v>371510</v>
       </c>
       <c r="E183" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B184" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D184">
         <v>371511</v>
       </c>
       <c r="E184" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B185" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D185">
         <v>371512</v>
       </c>
       <c r="E185" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B186" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D186">
         <v>371513</v>
       </c>
       <c r="E186" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B187" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D187">
         <v>371514</v>
       </c>
       <c r="E187" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
     </row>
     <row r="188" ht="19" customHeight="1" spans="1:5">
       <c r="A188" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B188" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C188">
         <v>3716</v>
       </c>
       <c r="E188" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B189" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D189">
         <v>371610</v>
       </c>
       <c r="E189" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B190" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D190">
         <v>371611</v>
       </c>
       <c r="E190" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B191" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D191">
         <v>371612</v>
       </c>
       <c r="E191" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="192" ht="19" customHeight="1" spans="1:5">
       <c r="A192" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B192" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C192">
         <v>3717</v>
       </c>
       <c r="E192" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B193" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D193">
         <v>371710</v>
       </c>
       <c r="E193" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B194" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D194">
         <v>371711</v>
       </c>
       <c r="E194" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
     </row>
     <row r="195" ht="19" customHeight="1" spans="1:5">
       <c r="A195" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B195" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C195">
         <v>3718</v>
       </c>
       <c r="E195" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B196" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D196">
         <v>371810</v>
       </c>
       <c r="E196" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B197" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D197">
         <v>371811</v>
       </c>
       <c r="E197" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B198" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D198">
         <v>371812</v>
       </c>
       <c r="E198" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="199" ht="19" customHeight="1" spans="1:5">
       <c r="A199" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B199" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C199">
         <v>3719</v>
       </c>
       <c r="E199" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B200" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D200">
         <v>371910</v>
       </c>
       <c r="E200" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
     </row>
     <row r="201" ht="19" customHeight="1" spans="1:5">
       <c r="A201" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B201" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C201">
         <v>3720</v>
       </c>
       <c r="E201" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B202" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D202">
         <v>372010</v>
       </c>
       <c r="E202" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
     <row r="203" ht="19" customHeight="1" spans="1:5">
       <c r="A203" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B203" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C203">
         <v>3721</v>
       </c>
       <c r="E203" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B204" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D204">
         <v>372110</v>
       </c>
       <c r="E204" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
     </row>
     <row r="205" ht="19" customHeight="1" spans="1:5">
       <c r="A205" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B205" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C205">
         <v>3722</v>
       </c>
       <c r="E205" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B206" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D206">
         <v>372210</v>
       </c>
       <c r="E206" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
     </row>
     <row r="207" ht="19" customHeight="1" spans="1:2">
       <c r="A207" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
     </row>
     <row r="208" ht="19" customHeight="1" spans="1:5">
       <c r="A208" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="C208">
         <v>3810</v>
       </c>
       <c r="E208" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="B209" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="D209">
         <v>381010</v>
       </c>
       <c r="E209" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="210" ht="19" customHeight="1" spans="1:5">
       <c r="A210" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="B210" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="C210">
         <v>3811</v>
       </c>
       <c r="E210" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="B211" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="D211">
         <v>381110</v>
       </c>
       <c r="E211" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="212" ht="19" customHeight="1" spans="1:2">
       <c r="A212" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
     </row>
     <row r="213" ht="19" customHeight="1" spans="1:5">
       <c r="A213" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="C213">
         <v>3910</v>
       </c>
       <c r="E213" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="D214">
         <v>391010</v>
       </c>
       <c r="E214" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B215" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="D215">
         <v>391011</v>
       </c>
       <c r="E215" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="216" ht="19" customHeight="1" spans="1:5">
       <c r="A216" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B216" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="C216">
         <v>3911</v>
       </c>
       <c r="E216" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B217" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="D217">
         <v>391110</v>
       </c>
       <c r="E217" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B218" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="D218">
         <v>391111</v>
       </c>
       <c r="E218" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B219" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="D219">
         <v>391112</v>
       </c>
       <c r="E219" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B220" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="D220">
         <v>391113</v>
       </c>
       <c r="E220" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
     </row>
     <row r="221" ht="19" customHeight="1" spans="1:5">
       <c r="A221" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B221" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="C221">
         <v>3912</v>
       </c>
       <c r="E221" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B222" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="D222">
         <v>391210</v>
       </c>
       <c r="E222" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B223" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="D223">
         <v>391211</v>
       </c>
       <c r="E223" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
     </row>
     <row r="224" ht="19" customHeight="1" spans="1:5">
       <c r="A224" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B224" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="C224">
         <v>3913</v>
       </c>
       <c r="E224" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B225" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="D225">
         <v>391310</v>
       </c>
       <c r="E225" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
     </row>
     <row r="226" ht="19" customHeight="1" spans="1:2">
       <c r="A226" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B226" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
     </row>
     <row r="227" ht="19" customHeight="1" spans="1:5">
       <c r="A227" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C227">
         <v>3110</v>
       </c>
       <c r="E227" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="D228">
         <v>311010</v>
       </c>
       <c r="E228" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="D229">
         <v>311011</v>
       </c>
       <c r="E229" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B230" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="D230">
         <v>311012</v>
       </c>
       <c r="E230" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B231" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="D231">
         <v>311013</v>
       </c>
       <c r="E231" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B232" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="D232">
         <v>311014</v>
       </c>
       <c r="E232" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="233" ht="19" customHeight="1" spans="1:5">
       <c r="A233" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B233" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C233">
         <v>3111</v>
       </c>
       <c r="E233" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B234" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="D234">
         <v>311110</v>
       </c>
       <c r="E234" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B235" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="D235">
         <v>311111</v>
       </c>
       <c r="E235" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
     </row>
     <row r="236" ht="19" customHeight="1" spans="1:2">
       <c r="A236" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B236" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="237" ht="19" customHeight="1" spans="1:5">
       <c r="A237" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B237" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="C237">
         <v>3510</v>
       </c>
       <c r="E237" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D238">
         <v>351010</v>
       </c>
       <c r="E238" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D239">
         <v>351013</v>
       </c>
       <c r="E239" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D240">
         <v>351014</v>
       </c>
       <c r="E240" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B241" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D241">
         <v>351015</v>
       </c>
       <c r="E241" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B242" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D242">
         <v>351016</v>
       </c>
       <c r="E242" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B243" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D243">
         <v>351017</v>
       </c>
       <c r="E243" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B244" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D244">
         <v>351018</v>
       </c>
       <c r="E244" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
     </row>
     <row r="245" ht="19" customHeight="1" spans="1:5">
       <c r="A245" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B245" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="C245">
         <v>3511</v>
       </c>
       <c r="E245" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B246" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D246">
         <v>351110</v>
       </c>
       <c r="E246" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B247" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D247">
         <v>351112</v>
       </c>
       <c r="E247" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B248" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D248">
         <v>351113</v>
       </c>
       <c r="E248" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B249" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D249">
         <v>351114</v>
       </c>
       <c r="E249" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B250" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D250">
         <v>351115</v>
       </c>
       <c r="E250" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B251" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D251">
         <v>351116</v>
       </c>
       <c r="E251" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
     </row>
     <row r="252" ht="19" customHeight="1" spans="1:5">
       <c r="A252" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B252" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="C252">
         <v>3512</v>
       </c>
       <c r="E252" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B253" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D253">
         <v>351210</v>
       </c>
       <c r="E253" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
     </row>
     <row r="254" ht="19" customHeight="1" spans="1:5">
       <c r="A254" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B254" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D254">
         <v>351211</v>
       </c>
       <c r="E254" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="255" ht="19" customHeight="1" spans="1:5">
       <c r="A255" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B255" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D255">
         <v>351212</v>
       </c>
       <c r="E255" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
     </row>
     <row r="256" ht="19" customHeight="1" spans="1:5">
       <c r="A256" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B256" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="C256">
         <v>3513</v>
       </c>
       <c r="E256" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B257" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D257">
         <v>351310</v>
       </c>
       <c r="E257" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
     </row>
     <row r="258" ht="19" customHeight="1"/>
@@ -6110,20 +5305,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.4"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>